--- a/hsv.xlsx
+++ b/hsv.xlsx
@@ -11,6 +11,29 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+  <si>
+    <t>Hue</t>
+  </si>
+  <si>
+    <t>Saturation</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>apples</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -340,101 +363,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
         <v>75.58709790820559</v>
       </c>
-      <c r="B1">
+      <c r="B2">
         <v>120.8249871173414</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>201.17367155771</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
         <v>82.909043</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>102.062282</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>198.609373</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
         <v>53.38122845691382</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>86.21186072144289</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>222.1369839679359</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
         <v>65.33967407407407</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>74.80638024691358</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>238.7269925925926</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
         <v>52.48621255547337</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>79.01244683801775</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>213.0833140717456</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
         <v>43.41056908417152</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>49.15904865890242</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>85.36712987471326</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
         <v>51.4495420856347</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>85.15149884341217</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>215.4209401406789</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>55.548436</v>
-      </c>
-      <c r="B8">
-        <v>71.925392</v>
-      </c>
-      <c r="C8">
-        <v>219.5243</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>70.18737704918033</v>
       </c>
@@ -444,8 +491,11 @@
       <c r="C9">
         <v>246.5066084189035</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>65.96455498312311</v>
       </c>
@@ -455,82 +505,78 @@
       <c r="C10">
         <v>248.8740765085569</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
-        <v>43.51049858109956</v>
+        <v>59.88201152852316</v>
       </c>
       <c r="B11">
-        <v>91.97278446389497</v>
+        <v>110.7303319419598</v>
       </c>
       <c r="C11">
-        <v>240.5210698167396</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>234.7669846948917</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
-        <v>59.88201152852316</v>
+        <v>48.4713381723432</v>
       </c>
       <c r="B12">
-        <v>110.7303319419598</v>
+        <v>91.38520147031454</v>
       </c>
       <c r="C12">
-        <v>234.7669846948917</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>246.4205983621813</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
-        <v>48.4713381723432</v>
+        <v>76.21333333333334</v>
       </c>
       <c r="B13">
-        <v>91.38520147031454</v>
+        <v>129.8308938271605</v>
       </c>
       <c r="C13">
-        <v>246.4205983621813</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>241.6286222222222</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14">
-        <v>76.21333333333334</v>
+        <v>53.865828</v>
       </c>
       <c r="B14">
-        <v>129.8308938271605</v>
+        <v>93.35978</v>
       </c>
       <c r="C14">
-        <v>241.6286222222222</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>239.147624</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15">
-        <v>53.865828</v>
+        <v>53.64759370314842</v>
       </c>
       <c r="B15">
-        <v>93.35978</v>
+        <v>62.83002098950525</v>
       </c>
       <c r="C15">
-        <v>239.147624</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>53.64759370314842</v>
-      </c>
-      <c r="B16">
-        <v>62.83002098950525</v>
-      </c>
-      <c r="C16">
         <v>249.6973043478261</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>45.16696981424148</v>
-      </c>
-      <c r="B17">
-        <v>88.71430147058824</v>
-      </c>
-      <c r="C17">
-        <v>253.3402476780186</v>
+      <c r="D15" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/hsv.xlsx
+++ b/hsv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="6">
   <si>
     <t>Hue</t>
   </si>
@@ -28,7 +28,7 @@
     <t>Class</t>
   </si>
   <si>
-    <t>apples</t>
+    <t>apple</t>
   </si>
   <si>
     <t>orange</t>
@@ -363,7 +363,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -469,13 +469,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>51.4495420856347</v>
+        <v>50.84785917930964</v>
       </c>
       <c r="B8">
-        <v>85.15149884341217</v>
+        <v>68.93794165563588</v>
       </c>
       <c r="C8">
-        <v>215.4209401406789</v>
+        <v>208.8774615619591</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
@@ -483,27 +483,27 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>70.18737704918033</v>
+        <v>51.4495420856347</v>
       </c>
       <c r="B9">
-        <v>145.4080423947637</v>
+        <v>85.15149884341217</v>
       </c>
       <c r="C9">
-        <v>246.5066084189035</v>
+        <v>215.4209401406789</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>65.96455498312311</v>
+        <v>70.18737704918033</v>
       </c>
       <c r="B10">
-        <v>115.6808497660923</v>
+        <v>145.4080423947637</v>
       </c>
       <c r="C10">
-        <v>248.8740765085569</v>
+        <v>246.5066084189035</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
@@ -511,13 +511,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>59.88201152852316</v>
+        <v>65.96455498312311</v>
       </c>
       <c r="B11">
-        <v>110.7303319419598</v>
+        <v>115.6808497660923</v>
       </c>
       <c r="C11">
-        <v>234.7669846948917</v>
+        <v>248.8740765085569</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -525,13 +525,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>48.4713381723432</v>
+        <v>43.51049858109956</v>
       </c>
       <c r="B12">
-        <v>91.38520147031454</v>
+        <v>91.97278446389497</v>
       </c>
       <c r="C12">
-        <v>246.4205983621813</v>
+        <v>240.5210698167396</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
@@ -539,13 +539,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>76.21333333333334</v>
+        <v>59.88201152852316</v>
       </c>
       <c r="B13">
-        <v>129.8308938271605</v>
+        <v>110.7303319419598</v>
       </c>
       <c r="C13">
-        <v>241.6286222222222</v>
+        <v>234.7669846948917</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
@@ -553,13 +553,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>53.865828</v>
+        <v>48.4713381723432</v>
       </c>
       <c r="B14">
-        <v>93.35978</v>
+        <v>91.38520147031454</v>
       </c>
       <c r="C14">
-        <v>239.147624</v>
+        <v>246.4205983621813</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
@@ -567,15 +567,43 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
+        <v>76.21333333333334</v>
+      </c>
+      <c r="B15">
+        <v>129.8308938271605</v>
+      </c>
+      <c r="C15">
+        <v>241.6286222222222</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>53.865828</v>
+      </c>
+      <c r="B16">
+        <v>93.35978</v>
+      </c>
+      <c r="C16">
+        <v>239.147624</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
         <v>53.64759370314842</v>
       </c>
-      <c r="B15">
+      <c r="B17">
         <v>62.83002098950525</v>
       </c>
-      <c r="C15">
+      <c r="C17">
         <v>249.6973043478261</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D17" t="s">
         <v>5</v>
       </c>
     </row>

--- a/hsv.xlsx
+++ b/hsv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="6">
   <si>
     <t>Hue</t>
   </si>
@@ -363,7 +363,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -497,27 +497,27 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>70.18737704918033</v>
+        <v>48.53515510204082</v>
       </c>
       <c r="B10">
-        <v>145.4080423947637</v>
+        <v>62.8087693877551</v>
       </c>
       <c r="C10">
-        <v>246.5066084189035</v>
+        <v>231.1706775510204</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>65.96455498312311</v>
+        <v>70.18737704918033</v>
       </c>
       <c r="B11">
-        <v>115.6808497660923</v>
+        <v>145.4080423947637</v>
       </c>
       <c r="C11">
-        <v>248.8740765085569</v>
+        <v>246.5066084189035</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -525,13 +525,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>43.51049858109956</v>
+        <v>65.96455498312311</v>
       </c>
       <c r="B12">
-        <v>91.97278446389497</v>
+        <v>115.6808497660923</v>
       </c>
       <c r="C12">
-        <v>240.5210698167396</v>
+        <v>248.8740765085569</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
@@ -539,13 +539,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>59.88201152852316</v>
+        <v>43.51049858109956</v>
       </c>
       <c r="B13">
-        <v>110.7303319419598</v>
+        <v>91.97278446389497</v>
       </c>
       <c r="C13">
-        <v>234.7669846948917</v>
+        <v>240.5210698167396</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
@@ -553,13 +553,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>48.4713381723432</v>
+        <v>59.88201152852316</v>
       </c>
       <c r="B14">
-        <v>91.38520147031454</v>
+        <v>110.7303319419598</v>
       </c>
       <c r="C14">
-        <v>246.4205983621813</v>
+        <v>234.7669846948917</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
@@ -567,13 +567,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>76.21333333333334</v>
+        <v>48.4713381723432</v>
       </c>
       <c r="B15">
-        <v>129.8308938271605</v>
+        <v>91.38520147031454</v>
       </c>
       <c r="C15">
-        <v>241.6286222222222</v>
+        <v>246.4205983621813</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
@@ -581,13 +581,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>53.865828</v>
+        <v>76.21333333333334</v>
       </c>
       <c r="B16">
-        <v>93.35978</v>
+        <v>129.8308938271605</v>
       </c>
       <c r="C16">
-        <v>239.147624</v>
+        <v>241.6286222222222</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
@@ -595,15 +595,29 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
+        <v>53.865828</v>
+      </c>
+      <c r="B17">
+        <v>93.35978</v>
+      </c>
+      <c r="C17">
+        <v>239.147624</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
         <v>53.64759370314842</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>62.83002098950525</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>249.6973043478261</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>5</v>
       </c>
     </row>

--- a/hsv.xlsx
+++ b/hsv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
   <si>
     <t>Hue</t>
   </si>
@@ -363,7 +363,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -385,13 +385,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>75.58709790820559</v>
+        <v>69.93241604436875</v>
       </c>
       <c r="B2">
-        <v>120.8249871173414</v>
+        <v>119.4631494825101</v>
       </c>
       <c r="C2">
-        <v>201.17367155771</v>
+        <v>103.8289733176121</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -399,13 +399,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>82.909043</v>
+        <v>82.135966</v>
       </c>
       <c r="B3">
-        <v>102.062282</v>
+        <v>101.873225</v>
       </c>
       <c r="C3">
-        <v>198.609373</v>
+        <v>165.679404</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -413,13 +413,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>53.38122845691382</v>
+        <v>53.71473647294589</v>
       </c>
       <c r="B4">
-        <v>86.21186072144289</v>
+        <v>91.98599298597195</v>
       </c>
       <c r="C4">
-        <v>222.1369839679359</v>
+        <v>80.75693687374749</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -427,13 +427,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>65.33967407407407</v>
+        <v>44.27289855072464</v>
       </c>
       <c r="B5">
-        <v>74.80638024691358</v>
+        <v>76.99673188405797</v>
       </c>
       <c r="C5">
-        <v>238.7269925925926</v>
+        <v>50.81751449275362</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -441,13 +441,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>52.48621255547337</v>
+        <v>60.37044938271605</v>
       </c>
       <c r="B6">
-        <v>79.01244683801775</v>
+        <v>95.15539753086419</v>
       </c>
       <c r="C6">
-        <v>213.0833140717456</v>
+        <v>107.7229037037037</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
@@ -455,13 +455,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>43.41056908417152</v>
+        <v>51.40317585059172</v>
       </c>
       <c r="B7">
-        <v>49.15904865890242</v>
+        <v>88.80160179363905</v>
       </c>
       <c r="C7">
-        <v>85.36712987471326</v>
+        <v>61.59795673076923</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
@@ -469,13 +469,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>50.84785917930964</v>
+        <v>36.287939827069</v>
       </c>
       <c r="B8">
-        <v>68.93794165563588</v>
+        <v>49.08493515087348</v>
       </c>
       <c r="C8">
-        <v>208.8774615619591</v>
+        <v>69.70464002117522</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
@@ -483,13 +483,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>51.4495420856347</v>
+        <v>48.58067661134304</v>
       </c>
       <c r="B9">
-        <v>85.15149884341217</v>
+        <v>67.88466805824254</v>
       </c>
       <c r="C9">
-        <v>215.4209401406789</v>
+        <v>69.20226809897159</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
@@ -497,13 +497,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>48.53515510204082</v>
+        <v>50.54839847991314</v>
       </c>
       <c r="B10">
-        <v>62.8087693877551</v>
+        <v>84.62199877260068</v>
       </c>
       <c r="C10">
-        <v>231.1706775510204</v>
+        <v>79.21735589859793</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
@@ -511,27 +511,27 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>70.18737704918033</v>
+        <v>42.11935714285714</v>
       </c>
       <c r="B11">
-        <v>145.4080423947637</v>
+        <v>67.00360612244899</v>
       </c>
       <c r="C11">
-        <v>246.5066084189035</v>
+        <v>59.25526122448979</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>65.96455498312311</v>
+        <v>67.29704617786585</v>
       </c>
       <c r="B12">
-        <v>115.6808497660923</v>
+        <v>149.7104719870294</v>
       </c>
       <c r="C12">
-        <v>248.8740765085569</v>
+        <v>148.304458656098</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
@@ -539,13 +539,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>43.51049858109956</v>
+        <v>56.99262331971339</v>
       </c>
       <c r="B13">
-        <v>91.97278446389497</v>
+        <v>117.9771871854089</v>
       </c>
       <c r="C13">
-        <v>240.5210698167396</v>
+        <v>121.9862924142832</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
@@ -553,13 +553,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>59.88201152852316</v>
+        <v>41.46559807508206</v>
       </c>
       <c r="B14">
-        <v>110.7303319419598</v>
+        <v>95.64466373769146</v>
       </c>
       <c r="C14">
-        <v>234.7669846948917</v>
+        <v>92.07184999829047</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
@@ -567,13 +567,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>48.4713381723432</v>
+        <v>68.76905947706159</v>
       </c>
       <c r="B15">
-        <v>91.38520147031454</v>
+        <v>149.8030241356192</v>
       </c>
       <c r="C15">
-        <v>246.4205983621813</v>
+        <v>160.8261122018964</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
@@ -581,13 +581,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>76.21333333333334</v>
+        <v>56.00113297555158</v>
       </c>
       <c r="B16">
-        <v>129.8308938271605</v>
+        <v>133.1910554561717</v>
       </c>
       <c r="C16">
-        <v>241.6286222222222</v>
+        <v>110.8894454382826</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
@@ -595,13 +595,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>53.865828</v>
+        <v>45.22304229480737</v>
       </c>
       <c r="B17">
-        <v>93.35978</v>
+        <v>102.5357574911595</v>
       </c>
       <c r="C17">
-        <v>239.147624</v>
+        <v>96.21698190024195</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
@@ -609,15 +609,57 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>53.64759370314842</v>
+        <v>70.89307654320987</v>
       </c>
       <c r="B18">
-        <v>62.83002098950525</v>
+        <v>148.8855901234568</v>
       </c>
       <c r="C18">
-        <v>249.6973043478261</v>
+        <v>142.4722567901235</v>
       </c>
       <c r="D18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>51.632296</v>
+      </c>
+      <c r="B19">
+        <v>101.840732</v>
+      </c>
+      <c r="C19">
+        <v>107.02792</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>53.0643125</v>
+      </c>
+      <c r="B20">
+        <v>119.5098625</v>
+      </c>
+      <c r="C20">
+        <v>107.7172609375</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>30.66874062968516</v>
+      </c>
+      <c r="B21">
+        <v>66.16414992503748</v>
+      </c>
+      <c r="C21">
+        <v>68.53306746626687</v>
+      </c>
+      <c r="D21" t="s">
         <v>5</v>
       </c>
     </row>

--- a/hsv.xlsx
+++ b/hsv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="6">
   <si>
     <t>Hue</t>
   </si>
@@ -363,7 +363,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -385,13 +385,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>69.93241604436875</v>
+        <v>49.873906</v>
       </c>
       <c r="B2">
-        <v>119.4631494825101</v>
+        <v>88.374982</v>
       </c>
       <c r="C2">
-        <v>103.8289733176121</v>
+        <v>105.36665</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -399,13 +399,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>82.135966</v>
+        <v>52.05810888252149</v>
       </c>
       <c r="B3">
-        <v>101.873225</v>
+        <v>88.70781279847182</v>
       </c>
       <c r="C3">
-        <v>165.679404</v>
+        <v>81.42002546959567</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -413,13 +413,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>53.71473647294589</v>
+        <v>21.59326</v>
       </c>
       <c r="B4">
-        <v>91.98599298597195</v>
+        <v>29.940036</v>
       </c>
       <c r="C4">
-        <v>80.75693687374749</v>
+        <v>30.43874</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -427,13 +427,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>44.27289855072464</v>
+        <v>65.19880000000001</v>
       </c>
       <c r="B5">
-        <v>76.99673188405797</v>
+        <v>91.31033244444444</v>
       </c>
       <c r="C5">
-        <v>50.81751449275362</v>
+        <v>112.74962</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -441,13 +441,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>60.37044938271605</v>
+        <v>46.40846525679758</v>
       </c>
       <c r="B6">
-        <v>95.15539753086419</v>
+        <v>75.65203625377643</v>
       </c>
       <c r="C6">
-        <v>107.7229037037037</v>
+        <v>48.21403625377643</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
@@ -455,13 +455,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>51.40317585059172</v>
+        <v>69.93241604436875</v>
       </c>
       <c r="B7">
-        <v>88.80160179363905</v>
+        <v>119.4631494825101</v>
       </c>
       <c r="C7">
-        <v>61.59795673076923</v>
+        <v>103.8289733176121</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
@@ -469,13 +469,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>36.287939827069</v>
+        <v>52.13067598925257</v>
       </c>
       <c r="B8">
-        <v>49.08493515087348</v>
+        <v>92.15425928187591</v>
       </c>
       <c r="C8">
-        <v>69.70464002117522</v>
+        <v>80.52391609672692</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
@@ -483,13 +483,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>48.58067661134304</v>
+        <v>89.03404166666667</v>
       </c>
       <c r="B9">
-        <v>67.88466805824254</v>
+        <v>157.4538708333333</v>
       </c>
       <c r="C9">
-        <v>69.20226809897159</v>
+        <v>121.6392791666667</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
@@ -497,13 +497,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>50.54839847991314</v>
+        <v>64.52844657375145</v>
       </c>
       <c r="B10">
-        <v>84.62199877260068</v>
+        <v>113.5275261324042</v>
       </c>
       <c r="C10">
-        <v>79.21735589859793</v>
+        <v>96.32421893147503</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
@@ -511,13 +511,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>42.11935714285714</v>
+        <v>32.87674617767334</v>
       </c>
       <c r="B11">
-        <v>67.00360612244899</v>
+        <v>61.14560508728027</v>
       </c>
       <c r="C11">
-        <v>59.25526122448979</v>
+        <v>75.32224941253662</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
@@ -525,141 +525,589 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>67.29704617786585</v>
+        <v>72.25073122529645</v>
       </c>
       <c r="B12">
-        <v>149.7104719870294</v>
+        <v>133.6000790513834</v>
       </c>
       <c r="C12">
-        <v>148.304458656098</v>
+        <v>76.15667984189723</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>56.99262331971339</v>
+        <v>44.4591421875</v>
       </c>
       <c r="B13">
-        <v>117.9771871854089</v>
+        <v>73.0684390625</v>
       </c>
       <c r="C13">
-        <v>121.9862924142832</v>
+        <v>54.1496453125</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>41.46559807508206</v>
+        <v>87.73728890011547</v>
       </c>
       <c r="B14">
-        <v>95.64466373769146</v>
+        <v>98.8818844273239</v>
       </c>
       <c r="C14">
-        <v>92.07184999829047</v>
+        <v>147.1349494352627</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>68.76905947706159</v>
+        <v>44.87352475247525</v>
       </c>
       <c r="B15">
-        <v>149.8030241356192</v>
+        <v>64.59110891089109</v>
       </c>
       <c r="C15">
-        <v>160.8261122018964</v>
+        <v>60.22322772277228</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>56.00113297555158</v>
+        <v>62.91176296296296</v>
       </c>
       <c r="B16">
-        <v>133.1910554561717</v>
+        <v>70.67847901234568</v>
       </c>
       <c r="C16">
-        <v>110.8894454382826</v>
+        <v>105.6677333333333</v>
       </c>
       <c r="D16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>45.22304229480737</v>
+        <v>49.85388491189428</v>
       </c>
       <c r="B17">
-        <v>102.5357574911595</v>
+        <v>45.43558232378854</v>
       </c>
       <c r="C17">
-        <v>96.21698190024195</v>
+        <v>105.2974311674009</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>70.89307654320987</v>
+        <v>27.014008</v>
       </c>
       <c r="B18">
-        <v>148.8855901234568</v>
+        <v>38.110028</v>
       </c>
       <c r="C18">
-        <v>142.4722567901235</v>
+        <v>39.20296</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>51.632296</v>
+        <v>36.70797012836325</v>
       </c>
       <c r="B19">
-        <v>101.840732</v>
+        <v>51.99572656363689</v>
       </c>
       <c r="C19">
-        <v>107.02792</v>
+        <v>63.66948530198404</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>53.0643125</v>
+        <v>50.54839847991314</v>
       </c>
       <c r="B20">
-        <v>119.5098625</v>
+        <v>84.62199877260068</v>
       </c>
       <c r="C20">
-        <v>107.7172609375</v>
+        <v>79.21735589859793</v>
       </c>
       <c r="D20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>30.66874062968516</v>
+        <v>37.57052448979592</v>
       </c>
       <c r="B21">
-        <v>66.16414992503748</v>
+        <v>52.47076530612245</v>
       </c>
       <c r="C21">
-        <v>68.53306746626687</v>
+        <v>58.20201632653061</v>
       </c>
       <c r="D21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>49.85154016620498</v>
+      </c>
+      <c r="B22">
+        <v>73.83524681440443</v>
+      </c>
+      <c r="C22">
+        <v>55.91643905817175</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>50.158992</v>
+      </c>
+      <c r="B23">
+        <v>79.25049199999999</v>
+      </c>
+      <c r="C23">
+        <v>68.887224</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>68.72943333333333</v>
+      </c>
+      <c r="B24">
+        <v>96.76874444444445</v>
+      </c>
+      <c r="C24">
+        <v>105.8725333333333</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>33.9250722802</v>
+      </c>
+      <c r="B25">
+        <v>53.19262434731363</v>
+      </c>
+      <c r="C25">
+        <v>51.56386469463099</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>78.12296143250688</v>
+      </c>
+      <c r="B26">
+        <v>108.0879387052342</v>
+      </c>
+      <c r="C26">
+        <v>127.5407561983471</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>76.34183611111111</v>
+      </c>
+      <c r="B27">
+        <v>129.4429833333333</v>
+      </c>
+      <c r="C27">
+        <v>108.4220138888889</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>67.316096875</v>
+      </c>
+      <c r="B28">
+        <v>128.9024322916667</v>
+      </c>
+      <c r="C28">
+        <v>182.2724927083333</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>39.41283541666667</v>
+      </c>
+      <c r="B29">
+        <v>87.45190277777778</v>
+      </c>
+      <c r="C29">
+        <v>91.79420486111111</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>67.16199963970456</v>
+      </c>
+      <c r="B30">
+        <v>149.7285317960728</v>
+      </c>
+      <c r="C30">
+        <v>148.586109409716</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>51.35074355555555</v>
+      </c>
+      <c r="B31">
+        <v>100.2016902222222</v>
+      </c>
+      <c r="C31">
+        <v>115.7970244444444</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>64.43477828594153</v>
+      </c>
+      <c r="B32">
+        <v>142.2954861801551</v>
+      </c>
+      <c r="C32">
+        <v>120.6413203420163</v>
+      </c>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>55.36300934207911</v>
+      </c>
+      <c r="B33">
+        <v>132.1856290995826</v>
+      </c>
+      <c r="C33">
+        <v>111.0833830252435</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>86.27027883396704</v>
+      </c>
+      <c r="B34">
+        <v>189.4092997465146</v>
+      </c>
+      <c r="C34">
+        <v>183.7745365969582</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>62.83395485381045</v>
+      </c>
+      <c r="B35">
+        <v>133.8582536596977</v>
+      </c>
+      <c r="C35">
+        <v>124.2707779585036</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>54.68677222222222</v>
+      </c>
+      <c r="B36">
+        <v>106.4267722222222</v>
+      </c>
+      <c r="C36">
+        <v>114.468175</v>
+      </c>
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>51.490152</v>
+      </c>
+      <c r="B37">
+        <v>101.8567</v>
+      </c>
+      <c r="C37">
+        <v>107.187344</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>101.6634203427483</v>
+      </c>
+      <c r="B38">
+        <v>215.064900031736</v>
+      </c>
+      <c r="C38">
+        <v>237.283263249762</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>108.7624639841033</v>
+      </c>
+      <c r="B39">
+        <v>244.7135419771485</v>
+      </c>
+      <c r="C39">
+        <v>190.0177645305514</v>
+      </c>
+      <c r="D39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>45.02748115577889</v>
+      </c>
+      <c r="B40">
+        <v>102.5123650660711</v>
+      </c>
+      <c r="C40">
+        <v>96.38809208077424</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>53.0049671875</v>
+      </c>
+      <c r="B41">
+        <v>114.5934484375</v>
+      </c>
+      <c r="C41">
+        <v>112.1749875</v>
+      </c>
+      <c r="D41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>58.83040151515151</v>
+      </c>
+      <c r="B42">
+        <v>132.456341991342</v>
+      </c>
+      <c r="C42">
+        <v>127.5692164502164</v>
+      </c>
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>50.95946074074074</v>
+      </c>
+      <c r="B43">
+        <v>117.3237380740741</v>
+      </c>
+      <c r="C43">
+        <v>114.0161078518519</v>
+      </c>
+      <c r="D43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>31.9180322265625</v>
+      </c>
+      <c r="B44">
+        <v>72.4633935546875</v>
+      </c>
+      <c r="C44">
+        <v>56.06220703125</v>
+      </c>
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>55.84164373867753</v>
+      </c>
+      <c r="B45">
+        <v>116.1641493999094</v>
+      </c>
+      <c r="C45">
+        <v>122.7824739583333</v>
+      </c>
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>43.0406002468533</v>
+      </c>
+      <c r="B46">
+        <v>99.23442077636719</v>
+      </c>
+      <c r="C46">
+        <v>95.60408020019531</v>
+      </c>
+      <c r="D46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>23.979828</v>
+      </c>
+      <c r="B47">
+        <v>146.7105568</v>
+      </c>
+      <c r="C47">
+        <v>238.2175976</v>
+      </c>
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>30.61098950524737</v>
+      </c>
+      <c r="B48">
+        <v>66.07467616191904</v>
+      </c>
+      <c r="C48">
+        <v>68.67674962518741</v>
+      </c>
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>45.38216918714556</v>
+      </c>
+      <c r="B49">
+        <v>107.2666741493384</v>
+      </c>
+      <c r="C49">
+        <v>109.3519458884688</v>
+      </c>
+      <c r="D49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>78.31840746820671</v>
+      </c>
+      <c r="B50">
+        <v>176.6234251695971</v>
+      </c>
+      <c r="C50">
+        <v>156.3414093866814</v>
+      </c>
+      <c r="D50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>47.10207227138643</v>
+      </c>
+      <c r="B51">
+        <v>103.2956784660767</v>
+      </c>
+      <c r="C51">
+        <v>119.5906108652901</v>
+      </c>
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>48.25634243176179</v>
+      </c>
+      <c r="B52">
+        <v>106.3072874867068</v>
+      </c>
+      <c r="C52">
+        <v>110.4697497341368</v>
+      </c>
+      <c r="D52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>47.49512745901639</v>
+      </c>
+      <c r="B53">
+        <v>102.258381147541</v>
+      </c>
+      <c r="C53">
+        <v>113.0927971311475</v>
+      </c>
+      <c r="D53" t="s">
         <v>5</v>
       </c>
     </row>

--- a/hsv.xlsx
+++ b/hsv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="7">
   <si>
     <t>Hue</t>
   </si>
@@ -28,10 +28,13 @@
     <t>Class</t>
   </si>
   <si>
-    <t>apple</t>
+    <t>belum matang</t>
   </si>
   <si>
-    <t>orange</t>
+    <t>busuk</t>
+  </si>
+  <si>
+    <t>matang</t>
   </si>
 </sst>
 </file>
@@ -363,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -385,13 +388,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>49.873906</v>
+        <v>80.91226593093627</v>
       </c>
       <c r="B2">
-        <v>88.374982</v>
+        <v>153.5609353862584</v>
       </c>
       <c r="C2">
-        <v>105.36665</v>
+        <v>165.952322000712</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -399,13 +402,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>52.05810888252149</v>
+        <v>77.94588606680536</v>
       </c>
       <c r="B3">
-        <v>88.70781279847182</v>
+        <v>181.5785678166898</v>
       </c>
       <c r="C3">
-        <v>81.42002546959567</v>
+        <v>112.6122554756126</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -413,13 +416,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>21.59326</v>
+        <v>77.36956374807988</v>
       </c>
       <c r="B4">
-        <v>29.940036</v>
+        <v>197.4883963133641</v>
       </c>
       <c r="C4">
-        <v>30.43874</v>
+        <v>151.21666359447</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -427,13 +430,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>65.19880000000001</v>
+        <v>40.30903194444444</v>
       </c>
       <c r="B5">
-        <v>91.31033244444444</v>
+        <v>91.79960902777778</v>
       </c>
       <c r="C5">
-        <v>112.74962</v>
+        <v>96.01405555555556</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -441,13 +444,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>46.40846525679758</v>
+        <v>75.48395747599452</v>
       </c>
       <c r="B6">
-        <v>75.65203625377643</v>
+        <v>193.1975925925926</v>
       </c>
       <c r="C6">
-        <v>48.21403625377643</v>
+        <v>156.3292729766804</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
@@ -455,13 +458,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>69.93241604436875</v>
+        <v>42.42516582516583</v>
       </c>
       <c r="B7">
-        <v>119.4631494825101</v>
+        <v>67.21728541728542</v>
       </c>
       <c r="C7">
-        <v>103.8289733176121</v>
+        <v>63.57740817740818</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
@@ -469,13 +472,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>52.13067598925257</v>
+        <v>73.97290229885057</v>
       </c>
       <c r="B8">
-        <v>92.15425928187591</v>
+        <v>171.3567959770115</v>
       </c>
       <c r="C8">
-        <v>80.52391609672692</v>
+        <v>158.2137931034483</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
@@ -483,13 +486,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>89.03404166666667</v>
+        <v>80.43731746031746</v>
       </c>
       <c r="B9">
-        <v>157.4538708333333</v>
+        <v>127.3623412698413</v>
       </c>
       <c r="C9">
-        <v>121.6392791666667</v>
+        <v>103.6913015873016</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
@@ -497,13 +500,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>64.52844657375145</v>
+        <v>29.757544</v>
       </c>
       <c r="B10">
-        <v>113.5275261324042</v>
+        <v>64.50206</v>
       </c>
       <c r="C10">
-        <v>96.32421893147503</v>
+        <v>59.936352</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
@@ -511,13 +514,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>32.87674617767334</v>
+        <v>15.362728</v>
       </c>
       <c r="B11">
-        <v>61.14560508728027</v>
+        <v>41.3908</v>
       </c>
       <c r="C11">
-        <v>75.32224941253662</v>
+        <v>26.392848</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
@@ -525,13 +528,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>72.25073122529645</v>
+        <v>37.2405296875</v>
       </c>
       <c r="B12">
-        <v>133.6000790513834</v>
+        <v>64.717484375</v>
       </c>
       <c r="C12">
-        <v>76.15667984189723</v>
+        <v>84.77062760416666</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
@@ -539,13 +542,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>44.4591421875</v>
+        <v>58.56685834713232</v>
       </c>
       <c r="B13">
-        <v>73.0684390625</v>
+        <v>65.54841788348638</v>
       </c>
       <c r="C13">
-        <v>54.1496453125</v>
+        <v>112.0852446183953</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
@@ -553,13 +556,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>87.73728890011547</v>
+        <v>43.57772566371681</v>
       </c>
       <c r="B14">
-        <v>98.8818844273239</v>
+        <v>96.00115707964602</v>
       </c>
       <c r="C14">
-        <v>147.1349494352627</v>
+        <v>86.83842920353982</v>
       </c>
       <c r="D14" t="s">
         <v>4</v>
@@ -567,13 +570,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>44.87352475247525</v>
+        <v>41.80086575342466</v>
       </c>
       <c r="B15">
-        <v>64.59110891089109</v>
+        <v>120.8775726027397</v>
       </c>
       <c r="C15">
-        <v>60.22322772277228</v>
+        <v>73.35027397260274</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
@@ -581,13 +584,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>62.91176296296296</v>
+        <v>29.90217649748514</v>
       </c>
       <c r="B16">
-        <v>70.67847901234568</v>
+        <v>79.17851051668953</v>
       </c>
       <c r="C16">
-        <v>105.6677333333333</v>
+        <v>55.29810928212163</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
@@ -595,13 +598,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>49.85388491189428</v>
+        <v>96.73945355191258</v>
       </c>
       <c r="B17">
-        <v>45.43558232378854</v>
+        <v>99.47368107302533</v>
       </c>
       <c r="C17">
-        <v>105.2974311674009</v>
+        <v>97.42805762543468</v>
       </c>
       <c r="D17" t="s">
         <v>4</v>
@@ -609,13 +612,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>27.014008</v>
+        <v>34.42346666666667</v>
       </c>
       <c r="B18">
-        <v>38.110028</v>
+        <v>93.02475061728396</v>
       </c>
       <c r="C18">
-        <v>39.20296</v>
+        <v>74.32764444444445</v>
       </c>
       <c r="D18" t="s">
         <v>4</v>
@@ -623,13 +626,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>36.70797012836325</v>
+        <v>24.21275177896762</v>
       </c>
       <c r="B19">
-        <v>51.99572656363689</v>
+        <v>61.85628607190043</v>
       </c>
       <c r="C19">
-        <v>63.66948530198404</v>
+        <v>52.85630925063162</v>
       </c>
       <c r="D19" t="s">
         <v>4</v>
@@ -637,13 +640,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>50.54839847991314</v>
+        <v>88.16690874413146</v>
       </c>
       <c r="B20">
-        <v>84.62199877260068</v>
+        <v>96.96508582746479</v>
       </c>
       <c r="C20">
-        <v>79.21735589859793</v>
+        <v>118.1301569835681</v>
       </c>
       <c r="D20" t="s">
         <v>4</v>
@@ -651,13 +654,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>37.57052448979592</v>
+        <v>67.27643072289156</v>
       </c>
       <c r="B21">
-        <v>52.47076530612245</v>
+        <v>140.5631972891566</v>
       </c>
       <c r="C21">
-        <v>58.20201632653061</v>
+        <v>102.8170301204819</v>
       </c>
       <c r="D21" t="s">
         <v>4</v>
@@ -665,13 +668,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>49.85154016620498</v>
+        <v>64.55074110243055</v>
       </c>
       <c r="B22">
-        <v>73.83524681440443</v>
+        <v>109.1487163628472</v>
       </c>
       <c r="C22">
-        <v>55.91643905817175</v>
+        <v>135.3927159288195</v>
       </c>
       <c r="D22" t="s">
         <v>4</v>
@@ -679,83 +682,83 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>50.158992</v>
+        <v>44.54769467213115</v>
       </c>
       <c r="B23">
-        <v>79.25049199999999</v>
+        <v>44.30330064402811</v>
       </c>
       <c r="C23">
-        <v>68.887224</v>
+        <v>86.42536226580796</v>
       </c>
       <c r="D23" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>68.72943333333333</v>
+        <v>31.06073033707865</v>
       </c>
       <c r="B24">
-        <v>96.76874444444445</v>
+        <v>21.48036516853933</v>
       </c>
       <c r="C24">
-        <v>105.8725333333333</v>
+        <v>15.54468164794008</v>
       </c>
       <c r="D24" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>33.9250722802</v>
+        <v>73.04580825242718</v>
       </c>
       <c r="B25">
-        <v>53.19262434731363</v>
+        <v>90.81099190938511</v>
       </c>
       <c r="C25">
-        <v>51.56386469463099</v>
+        <v>96.9545428802589</v>
       </c>
       <c r="D25" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>78.12296143250688</v>
+        <v>18.44381666666667</v>
       </c>
       <c r="B26">
-        <v>108.0879387052342</v>
+        <v>18.02291666666667</v>
       </c>
       <c r="C26">
-        <v>127.5407561983471</v>
+        <v>10.6237625</v>
       </c>
       <c r="D26" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>76.34183611111111</v>
+        <v>36.21557359912758</v>
       </c>
       <c r="B27">
-        <v>129.4429833333333</v>
+        <v>18.15999638375174</v>
       </c>
       <c r="C27">
-        <v>108.4220138888889</v>
+        <v>27.91165477260014</v>
       </c>
       <c r="D27" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>67.316096875</v>
+        <v>62.16533437317216</v>
       </c>
       <c r="B28">
-        <v>128.9024322916667</v>
+        <v>37.92444546095355</v>
       </c>
       <c r="C28">
-        <v>182.2724927083333</v>
+        <v>65.90112782518709</v>
       </c>
       <c r="D28" t="s">
         <v>5</v>
@@ -763,13 +766,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>39.41283541666667</v>
+        <v>30.36001466672363</v>
       </c>
       <c r="B29">
-        <v>87.45190277777778</v>
+        <v>42.16218121235422</v>
       </c>
       <c r="C29">
-        <v>91.79420486111111</v>
+        <v>66.39022028564513</v>
       </c>
       <c r="D29" t="s">
         <v>5</v>
@@ -777,13 +780,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>67.16199963970456</v>
+        <v>31.52164231705754</v>
       </c>
       <c r="B30">
-        <v>149.7285317960728</v>
+        <v>30.59672161348199</v>
       </c>
       <c r="C30">
-        <v>148.586109409716</v>
+        <v>24.41176470588235</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
@@ -791,13 +794,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>51.35074355555555</v>
+        <v>42.05145653675066</v>
       </c>
       <c r="B31">
-        <v>100.2016902222222</v>
+        <v>26.41017086605322</v>
       </c>
       <c r="C31">
-        <v>115.7970244444444</v>
+        <v>45.22612853495207</v>
       </c>
       <c r="D31" t="s">
         <v>5</v>
@@ -805,13 +808,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>64.43477828594153</v>
+        <v>48.51127261655643</v>
       </c>
       <c r="B32">
-        <v>142.2954861801551</v>
+        <v>54.31518867035843</v>
       </c>
       <c r="C32">
-        <v>120.6413203420163</v>
+        <v>90.44617696929733</v>
       </c>
       <c r="D32" t="s">
         <v>5</v>
@@ -819,13 +822,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>55.36300934207911</v>
+        <v>102.8383001776199</v>
       </c>
       <c r="B33">
-        <v>132.1856290995826</v>
+        <v>90.94282238010658</v>
       </c>
       <c r="C33">
-        <v>111.0833830252435</v>
+        <v>133.5971474245115</v>
       </c>
       <c r="D33" t="s">
         <v>5</v>
@@ -833,13 +836,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>86.27027883396704</v>
+        <v>30.82566801230296</v>
       </c>
       <c r="B34">
-        <v>189.4092997465146</v>
+        <v>20.77442169678329</v>
       </c>
       <c r="C34">
-        <v>183.7745365969582</v>
+        <v>18.96567425990004</v>
       </c>
       <c r="D34" t="s">
         <v>5</v>
@@ -847,13 +850,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>62.83395485381045</v>
+        <v>24.38138999277457</v>
       </c>
       <c r="B35">
-        <v>133.8582536596977</v>
+        <v>11.8099513412211</v>
       </c>
       <c r="C35">
-        <v>124.2707779585036</v>
+        <v>23.32669402546965</v>
       </c>
       <c r="D35" t="s">
         <v>5</v>
@@ -861,13 +864,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>54.68677222222222</v>
+        <v>31.02880376956984</v>
       </c>
       <c r="B36">
-        <v>106.4267722222222</v>
+        <v>30.44016084234962</v>
       </c>
       <c r="C36">
-        <v>114.468175</v>
+        <v>22.63372093023256</v>
       </c>
       <c r="D36" t="s">
         <v>5</v>
@@ -875,13 +878,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>51.490152</v>
+        <v>9.177353556485356</v>
       </c>
       <c r="B37">
-        <v>101.8567</v>
+        <v>6.54913179916318</v>
       </c>
       <c r="C37">
-        <v>107.187344</v>
+        <v>6.239926778242678</v>
       </c>
       <c r="D37" t="s">
         <v>5</v>
@@ -889,13 +892,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>101.6634203427483</v>
+        <v>46.27640293283309</v>
       </c>
       <c r="B38">
-        <v>215.064900031736</v>
+        <v>108.7599729479319</v>
       </c>
       <c r="C38">
-        <v>237.283263249762</v>
+        <v>145.7462124245059</v>
       </c>
       <c r="D38" t="s">
         <v>5</v>
@@ -903,13 +906,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>108.7624639841033</v>
+        <v>25.12232860972807</v>
       </c>
       <c r="B39">
-        <v>244.7135419771485</v>
+        <v>11.63316736882421</v>
       </c>
       <c r="C39">
-        <v>190.0177645305514</v>
+        <v>24.23939103791651</v>
       </c>
       <c r="D39" t="s">
         <v>5</v>
@@ -917,13 +920,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>45.02748115577889</v>
+        <v>41.97088541666667</v>
       </c>
       <c r="B40">
-        <v>102.5123650660711</v>
+        <v>34.21307291666667</v>
       </c>
       <c r="C40">
-        <v>96.38809208077424</v>
+        <v>45.52713541666667</v>
       </c>
       <c r="D40" t="s">
         <v>5</v>
@@ -931,13 +934,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>53.0049671875</v>
+        <v>85.56513099467141</v>
       </c>
       <c r="B41">
-        <v>114.5934484375</v>
+        <v>116.1561763617525</v>
       </c>
       <c r="C41">
-        <v>112.1749875</v>
+        <v>167.0900062907046</v>
       </c>
       <c r="D41" t="s">
         <v>5</v>
@@ -945,13 +948,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>58.83040151515151</v>
+        <v>60.52510595618432</v>
       </c>
       <c r="B42">
-        <v>132.456341991342</v>
+        <v>34.99297753816575</v>
       </c>
       <c r="C42">
-        <v>127.5692164502164</v>
+        <v>81.79933648352208</v>
       </c>
       <c r="D42" t="s">
         <v>5</v>
@@ -959,13 +962,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>50.95946074074074</v>
+        <v>106.295684</v>
       </c>
       <c r="B43">
-        <v>117.3237380740741</v>
+        <v>106.22396</v>
       </c>
       <c r="C43">
-        <v>114.0161078518519</v>
+        <v>101.394816</v>
       </c>
       <c r="D43" t="s">
         <v>5</v>
@@ -973,13 +976,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>31.9180322265625</v>
+        <v>28.83826296296296</v>
       </c>
       <c r="B44">
-        <v>72.4633935546875</v>
+        <v>17.29778518518518</v>
       </c>
       <c r="C44">
-        <v>56.06220703125</v>
+        <v>26.14828148148148</v>
       </c>
       <c r="D44" t="s">
         <v>5</v>
@@ -987,13 +990,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>55.84164373867753</v>
+        <v>37.31271099217785</v>
       </c>
       <c r="B45">
-        <v>116.1641493999094</v>
+        <v>25.74483326471799</v>
       </c>
       <c r="C45">
-        <v>122.7824739583333</v>
+        <v>41.72534993824619</v>
       </c>
       <c r="D45" t="s">
         <v>5</v>
@@ -1001,114 +1004,506 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>43.0406002468533</v>
+        <v>100.3011767578125</v>
       </c>
       <c r="B46">
-        <v>99.23442077636719</v>
+        <v>200.8480810546875</v>
       </c>
       <c r="C46">
-        <v>95.60408020019531</v>
+        <v>214.6710522460938</v>
       </c>
       <c r="D46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>23.979828</v>
+        <v>55.62049135802469</v>
       </c>
       <c r="B47">
-        <v>146.7105568</v>
+        <v>104.8642283950617</v>
       </c>
       <c r="C47">
-        <v>238.2175976</v>
+        <v>120.2917185185185</v>
       </c>
       <c r="D47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>30.61098950524737</v>
+        <v>83.181533203125</v>
       </c>
       <c r="B48">
-        <v>66.07467616191904</v>
+        <v>72.81599934895833</v>
       </c>
       <c r="C48">
-        <v>68.67674962518741</v>
+        <v>159.8449544270833</v>
       </c>
       <c r="D48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>45.38216918714556</v>
+        <v>74.55234285714286</v>
       </c>
       <c r="B49">
-        <v>107.2666741493384</v>
+        <v>114.1874836734694</v>
       </c>
       <c r="C49">
-        <v>109.3519458884688</v>
+        <v>138.6056918367347</v>
       </c>
       <c r="D49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>78.31840746820671</v>
+        <v>61.44215883294257</v>
       </c>
       <c r="B50">
-        <v>176.6234251695971</v>
+        <v>123.304919802017</v>
       </c>
       <c r="C50">
-        <v>156.3414093866814</v>
+        <v>131.9667392356072</v>
       </c>
       <c r="D50" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>47.10207227138643</v>
+        <v>29.96159680574979</v>
       </c>
       <c r="B51">
-        <v>103.2956784660767</v>
+        <v>49.73920885831271</v>
       </c>
       <c r="C51">
-        <v>119.5906108652901</v>
+        <v>66.88343083550721</v>
       </c>
       <c r="D51" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>48.25634243176179</v>
+        <v>95.17011235955056</v>
       </c>
       <c r="B52">
-        <v>106.3072874867068</v>
+        <v>182.4592380617977</v>
       </c>
       <c r="C52">
-        <v>110.4697497341368</v>
+        <v>249.451404494382</v>
       </c>
       <c r="D52" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>47.49512745901639</v>
+        <v>94.12601318359376</v>
       </c>
       <c r="B53">
-        <v>102.258381147541</v>
+        <v>165.9355322265625</v>
       </c>
       <c r="C53">
-        <v>113.0927971311475</v>
+        <v>186.710146484375</v>
       </c>
       <c r="D53" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>88.91838980509745</v>
+      </c>
+      <c r="B54">
+        <v>133.7152308845577</v>
+      </c>
+      <c r="C54">
+        <v>122.0606671664168</v>
+      </c>
+      <c r="D54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>53.37819560507583</v>
+      </c>
+      <c r="B55">
+        <v>102.7197462086041</v>
+      </c>
+      <c r="C55">
+        <v>127.4651294748788</v>
+      </c>
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>31.1511875</v>
+      </c>
+      <c r="B56">
+        <v>63.6617984375</v>
+      </c>
+      <c r="C56">
+        <v>70.89622031250001</v>
+      </c>
+      <c r="D56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>56.28374592110433</v>
+      </c>
+      <c r="B57">
+        <v>99.27771513505202</v>
+      </c>
+      <c r="C57">
+        <v>129.4357413766593</v>
+      </c>
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>96.73276867821762</v>
+      </c>
+      <c r="B58">
+        <v>219.9681551354409</v>
+      </c>
+      <c r="C58">
+        <v>201.6225383168226</v>
+      </c>
+      <c r="D58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>9.113086080586081</v>
+      </c>
+      <c r="B59">
+        <v>20.08939560439561</v>
+      </c>
+      <c r="C59">
+        <v>22.67153846153846</v>
+      </c>
+      <c r="D59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>22.06764647467726</v>
+      </c>
+      <c r="B60">
+        <v>49.53708540218471</v>
+      </c>
+      <c r="C60">
+        <v>90.83377358490566</v>
+      </c>
+      <c r="D60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>80.8626406362979</v>
+      </c>
+      <c r="B61">
+        <v>116.2310050614606</v>
+      </c>
+      <c r="C61">
+        <v>146.3007722342733</v>
+      </c>
+      <c r="D61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>94.65767585206672</v>
+      </c>
+      <c r="B62">
+        <v>126.3969108049311</v>
+      </c>
+      <c r="C62">
+        <v>143.8052211747643</v>
+      </c>
+      <c r="D62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <v>45.504375</v>
+      </c>
+      <c r="B63">
+        <v>98.48763333333333</v>
+      </c>
+      <c r="C63">
+        <v>101.4240541666667</v>
+      </c>
+      <c r="D63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <v>38.614108</v>
+      </c>
+      <c r="B64">
+        <v>71.855296</v>
+      </c>
+      <c r="C64">
+        <v>81.280816</v>
+      </c>
+      <c r="D64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>13.6731847133758</v>
+      </c>
+      <c r="B65">
+        <v>29.28263004246284</v>
+      </c>
+      <c r="C65">
+        <v>27.96574442675159</v>
+      </c>
+      <c r="D65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>92.36201244115669</v>
+      </c>
+      <c r="B66">
+        <v>118.3313820471867</v>
+      </c>
+      <c r="C66">
+        <v>169.1254119031607</v>
+      </c>
+      <c r="D66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>97.6282208588957</v>
+      </c>
+      <c r="B67">
+        <v>219.3865426479319</v>
+      </c>
+      <c r="C67">
+        <v>184.8476944389472</v>
+      </c>
+      <c r="D67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>45.78808015902367</v>
+      </c>
+      <c r="B68">
+        <v>94.74823756471893</v>
+      </c>
+      <c r="C68">
+        <v>98.30977255917159</v>
+      </c>
+      <c r="D68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>104.725338579795</v>
+      </c>
+      <c r="B69">
+        <v>196.9358442761713</v>
+      </c>
+      <c r="C69">
+        <v>137.7040915538067</v>
+      </c>
+      <c r="D69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>40.74601133651552</v>
+      </c>
+      <c r="B70">
+        <v>86.78417362768496</v>
+      </c>
+      <c r="C70">
+        <v>88.47345167064439</v>
+      </c>
+      <c r="D70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <v>100.8096478926622</v>
+      </c>
+      <c r="B71">
+        <v>182.697043662826</v>
+      </c>
+      <c r="C71">
+        <v>193.898605215282</v>
+      </c>
+      <c r="D71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
+        <v>95.20534545454545</v>
+      </c>
+      <c r="B72">
+        <v>157.9337090909091</v>
+      </c>
+      <c r="C72">
+        <v>194.9062961038961</v>
+      </c>
+      <c r="D72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <v>88.61391785714285</v>
+      </c>
+      <c r="B73">
+        <v>204.4723178571429</v>
+      </c>
+      <c r="C73">
+        <v>179.6483714285714</v>
+      </c>
+      <c r="D73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>44.45745972602739</v>
+      </c>
+      <c r="B74">
+        <v>89.26038356164383</v>
+      </c>
+      <c r="C74">
+        <v>89.64124493150685</v>
+      </c>
+      <c r="D74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
+        <v>25.55546944444444</v>
+      </c>
+      <c r="B75">
+        <v>50.26510555555556</v>
+      </c>
+      <c r="C75">
+        <v>52.97046111111111</v>
+      </c>
+      <c r="D75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <v>100.8010052910053</v>
+      </c>
+      <c r="B76">
+        <v>191.1531587301587</v>
+      </c>
+      <c r="C76">
+        <v>153.4410476190476</v>
+      </c>
+      <c r="D76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77">
+        <v>124.418458041958</v>
+      </c>
+      <c r="B77">
+        <v>85.20803146853147</v>
+      </c>
+      <c r="C77">
+        <v>116.2508881118881</v>
+      </c>
+      <c r="D77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78">
+        <v>99.48874327218805</v>
+      </c>
+      <c r="B78">
+        <v>196.3583296719391</v>
+      </c>
+      <c r="C78">
+        <v>231.2370047964265</v>
+      </c>
+      <c r="D78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79">
+        <v>32.26880191693291</v>
+      </c>
+      <c r="B79">
+        <v>64.03239616613419</v>
+      </c>
+      <c r="C79">
+        <v>72.3745750798722</v>
+      </c>
+      <c r="D79" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
+        <v>42.042948</v>
+      </c>
+      <c r="B80">
+        <v>100.144472</v>
+      </c>
+      <c r="C80">
+        <v>95.700964</v>
+      </c>
+      <c r="D80" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81">
+        <v>32.42238392238392</v>
+      </c>
+      <c r="B81">
+        <v>64.96822014322014</v>
+      </c>
+      <c r="C81">
+        <v>71.42993531993532</v>
+      </c>
+      <c r="D81" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
